--- a/测试文件1.xlsx
+++ b/测试文件1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MCEdu\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3983A28-A5D6-427C-BE39-9FA006CE992C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{1994F5DD-E0A4-4B7A-B5E5-0A7A179F7A31}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6920" xr2:uid="{FD8B8346-9CDC-45D5-9C80-6CAC3A58D5ED}"/>
   </bookViews>
@@ -412,7 +412,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -430,7 +430,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>4000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">

--- a/测试文件1.xlsx
+++ b/测试文件1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MCEdu\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{1994F5DD-E0A4-4B7A-B5E5-0A7A179F7A31}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{9DD283D8-EB33-451E-B524-FBBEA460571D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6920" xr2:uid="{FD8B8346-9CDC-45D5-9C80-6CAC3A58D5ED}"/>
   </bookViews>
@@ -412,7 +412,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -430,7 +430,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>5000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
